--- a/xlsx/肯塔基州_intext.xlsx
+++ b/xlsx/肯塔基州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
   <si>
     <t>肯塔基州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_肯塔基州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_肯塔基州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%B6%AD%E7%88%BE_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
   </si>
   <si>
-    <t>路易維爾 (肯塔基州)</t>
+    <t>路易维尔 (肯塔基州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%89%B9%C2%B7%E8%B2%9D%E6%96%87</t>
   </si>
   <si>
-    <t>馬特·貝文</t>
+    <t>马特·贝文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E%E5%89%AF%E5%B7%9E%E9%95%BF</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%A5%87%C2%B7%E9%BA%A5%E5%BA%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>米奇·麥康諾</t>
+    <t>米奇·麦康诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E5%BE%B7%C2%B7%E4%BF%9D%E7%BD%97</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -215,9 +215,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
   </si>
   <si>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BC%AF%E8%98%AD%E5%B3%BD</t>
   </si>
   <si>
-    <t>坎伯蘭峽</t>
+    <t>坎伯兰峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>傑佛遜·戴維斯</t>
+    <t>杰佛逊·戴维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3</t>
   </si>
   <si>
-    <t>田納西河</t>
+    <t>田纳西河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BC%AF%E5%85%B0%E6%B2%B3</t>
@@ -359,13 +356,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>肯塔基州行政區劃</t>
+    <t>肯塔基州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易維爾</t>
+    <t>路易维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B8%A9%E9%A1%BF_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E9%9D%88%E6%A0%BC%E6%9E%97_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
   </si>
   <si>
-    <t>鮑靈格林 (肯塔基州)</t>
+    <t>鲍灵格林 (肯塔基州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E8%99%B9</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國共和黨</t>
+    <t>美国共和党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -443,9 +440,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC</t>
   </si>
   <si>
-    <t>馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B</t>
   </si>
   <si>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%99%E8%8D%89</t>
   </si>
   <si>
-    <t>煙草</t>
+    <t>烟草</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B1%86</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0</t>
   </si>
   <si>
-    <t>豐田</t>
+    <t>丰田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%83%9C</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>亞裔美國人</t>
+    <t>亚裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
@@ -509,31 +503,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80%E5%85%92</t>
   </si>
   <si>
-    <t>混血兒</t>
+    <t>混血儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%97%AC%E7%AF%80%E6%9C%83</t>
   </si>
   <si>
-    <t>五旬節會</t>
+    <t>五旬节会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%B9%89%E5%AE%97</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>肯塔基大學</t>
+    <t>肯塔基大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -611,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%82%AF%E5%A1%94%E5%9F%BA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東肯塔基大學</t>
+    <t>东肯塔基大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%A8%B1%E8%98%AD%E7%A4%BE%E5%8D%80%E6%8A%80%E8%A1%93%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>愛許蘭社區技術學院</t>
+    <t>爱许兰社区技术学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%B0%E8%A5%BF%E7%93%A6%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
@@ -641,37 +635,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E5%A0%A4%E7%B4%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>辛辛那堤紅人</t>
+    <t>辛辛那堤红人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
   </si>
   <si>
-    <t>休士頓太空人</t>
+    <t>休士顿太空人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/65%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>65號州際公路</t>
+    <t>65号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E5%A0%A4%EF%BC%8F%E5%8C%97%E8%82%AF%E5%A1%94%E5%9F%BA%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>辛辛那堤／北肯塔基國際機場</t>
+    <t>辛辛那堤／北肯塔基国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%BB%B4%E5%B0%94%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/75%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>75號州際公路</t>
+    <t>75号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/64%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -749,31 +743,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%C2%B7%E8%91%9B%E6%8B%89%E8%8A%99%E9%A0%93</t>
   </si>
   <si>
-    <t>蘇·葛拉芙頓</t>
+    <t>苏·葛拉芙顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E4%BD%9B%C2%B7%E5%8B%9E%E5%80%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>珍妮佛·勞倫斯</t>
+    <t>珍妮佛·劳伦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC85%E5%B1%86%E5%A5%A7%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E7%8D%8E</t>
   </si>
   <si>
-    <t>第85屆奧斯卡金像獎</t>
+    <t>第85届奥斯卡金像奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B6%85%E7%B4%9A%E6%91%A9%E6%89%98%E8%BB%8A%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界超級摩托車錦標賽</t>
+    <t>世界超级摩托车锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%A9%E6%89%98%E8%BB%8A%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界摩托車錦標賽</t>
+    <t>世界摩托车锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -785,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -803,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -821,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -845,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -899,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -911,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -923,9 +917,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -935,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1073,19 +1064,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1115,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1127,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1139,25 +1130,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1187,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1205,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1223,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2513,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>16</v>
@@ -2548,10 +2539,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>90</v>
@@ -2577,10 +2568,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2606,10 +2597,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
@@ -2635,10 +2626,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>7</v>
@@ -2664,10 +2655,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2693,10 +2684,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2722,10 +2713,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2751,10 +2742,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2780,10 +2771,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2809,10 +2800,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2838,10 +2829,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2867,10 +2858,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2896,10 +2887,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2925,10 +2916,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2954,10 +2945,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2983,10 +2974,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3012,10 +3003,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3041,10 +3032,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3070,10 +3061,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3099,10 +3090,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3128,10 +3119,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3157,10 +3148,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3186,10 +3177,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3215,10 +3206,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3244,10 +3235,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3273,10 +3264,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3302,10 +3293,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3331,10 +3322,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3360,10 +3351,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3418,10 +3409,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3447,10 +3438,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3476,10 +3467,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3505,10 +3496,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3534,10 +3525,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3563,10 +3554,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3592,10 +3583,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3621,10 +3612,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3650,10 +3641,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -3679,10 +3670,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3708,10 +3699,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3737,10 +3728,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3766,10 +3757,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3795,10 +3786,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3824,10 +3815,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3853,10 +3844,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3882,10 +3873,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3911,10 +3902,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3940,10 +3931,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3969,10 +3960,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3998,10 +3989,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4027,10 +4018,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4056,10 +4047,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4085,10 +4076,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4114,10 +4105,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>7</v>
@@ -4143,10 +4134,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4172,10 +4163,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4201,10 +4192,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4230,10 +4221,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4259,10 +4250,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4288,10 +4279,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4317,10 +4308,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4346,10 +4337,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4375,10 +4366,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4404,10 +4395,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4433,10 +4424,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4462,10 +4453,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4491,10 +4482,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4520,10 +4511,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4549,10 +4540,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4578,10 +4569,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4607,10 +4598,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4636,10 +4627,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4665,10 +4656,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4694,10 +4685,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4723,10 +4714,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4752,10 +4743,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4781,10 +4772,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4810,10 +4801,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4839,10 +4830,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4868,10 +4859,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4897,10 +4888,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4926,10 +4917,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4955,10 +4946,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4984,10 +4975,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5013,10 +5004,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5042,10 +5033,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5071,10 +5062,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5100,10 +5091,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5129,10 +5120,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5158,10 +5149,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5187,10 +5178,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5216,10 +5207,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5245,10 +5236,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5274,10 +5265,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5303,10 +5294,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5332,10 +5323,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5361,10 +5352,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5390,10 +5381,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5419,10 +5410,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5448,10 +5439,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5477,10 +5468,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5506,10 +5497,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5535,10 +5526,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5564,10 +5555,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5593,10 +5584,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5622,10 +5613,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5651,10 +5642,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5680,10 +5671,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>100</v>
+      </c>
+      <c r="F142" t="s">
         <v>101</v>
-      </c>
-      <c r="F142" t="s">
-        <v>102</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5709,10 +5700,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5738,10 +5729,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5767,10 +5758,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5796,10 +5787,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5825,10 +5816,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5854,10 +5845,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5883,10 +5874,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5912,10 +5903,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5941,10 +5932,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5970,10 +5961,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5999,10 +5990,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6028,10 +6019,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6057,10 +6048,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6086,10 +6077,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6115,10 +6106,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6144,10 +6135,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6173,10 +6164,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6202,10 +6193,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6231,10 +6222,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6260,10 +6251,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6289,10 +6280,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>104</v>
+      </c>
+      <c r="F163" t="s">
         <v>105</v>
-      </c>
-      <c r="F163" t="s">
-        <v>106</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -6318,10 +6309,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6347,10 +6338,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6376,10 +6367,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6405,10 +6396,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6434,10 +6425,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6463,10 +6454,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6492,10 +6483,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>92</v>
+      </c>
+      <c r="F170" t="s">
         <v>93</v>
-      </c>
-      <c r="F170" t="s">
-        <v>94</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6521,10 +6512,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6550,10 +6541,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6579,10 +6570,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6608,10 +6599,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>70</v>
+      </c>
+      <c r="F174" t="s">
         <v>71</v>
-      </c>
-      <c r="F174" t="s">
-        <v>72</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6637,10 +6628,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6666,10 +6657,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6695,10 +6686,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6724,10 +6715,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6753,10 +6744,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6782,10 +6773,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6811,10 +6802,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6840,10 +6831,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6869,10 +6860,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6898,10 +6889,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6927,10 +6918,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6956,10 +6947,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6985,10 +6976,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7014,10 +7005,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7043,10 +7034,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7072,10 +7063,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7101,10 +7092,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7130,10 +7121,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7159,10 +7150,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7188,10 +7179,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7217,10 +7208,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7246,10 +7237,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7275,10 +7266,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7304,10 +7295,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7333,10 +7324,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7362,10 +7353,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -7391,10 +7382,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7420,10 +7411,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7449,10 +7440,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7478,10 +7469,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7507,10 +7498,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7536,10 +7527,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
